--- a/Feature-Analysis/Resize Feature/s_13_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_13_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.83962962963</v>
+        <v>738157.83962962963</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.84077546292</v>
+        <v>738157.84077546292</v>
       </c>
       <c r="C3" s="0">
         <v>98.999996110796928</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.84077546292</v>
+        <v>738157.84077546292</v>
       </c>
       <c r="C4" s="0">
         <v>98.999996110796928</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.84091435187</v>
+        <v>738157.84091435187</v>
       </c>
       <c r="C5" s="0">
         <v>111.00000143051147</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.84131944447</v>
+        <v>738157.84131944447</v>
       </c>
       <c r="C6" s="0">
         <v>146.00000269711018</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.84172453708</v>
+        <v>738157.84172453708</v>
       </c>
       <c r="C7" s="0">
         <v>181.00000396370888</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.84199074074</v>
+        <v>738157.84199074074</v>
       </c>
       <c r="C8" s="0">
         <v>203.99999991059303</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.84239583334</v>
+        <v>738157.84239583334</v>
       </c>
       <c r="C9" s="0">
         <v>239.00000117719173</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.84280092595</v>
+        <v>738157.84280092595</v>
       </c>
       <c r="C10" s="0">
         <v>274.00000244379044</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.84320601856</v>
+        <v>738157.84320601856</v>
       </c>
       <c r="C11" s="0">
         <v>309.00000371038914</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.84361111117</v>
+        <v>738157.84361111117</v>
       </c>
       <c r="C12" s="0">
         <v>344.00000497698784</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.84402777778</v>
+        <v>738157.84402777778</v>
       </c>
       <c r="C13" s="0">
         <v>380.00000081956387</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.84443287039</v>
+        <v>738157.84443287039</v>
       </c>
       <c r="C14" s="0">
         <v>415.00000208616257</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.844837963</v>
+        <v>738157.844837963</v>
       </c>
       <c r="C15" s="0">
         <v>450.00000335276127</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.84524305561</v>
+        <v>738157.84524305561</v>
       </c>
       <c r="C16" s="0">
         <v>485.00000461935997</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.84550925926</v>
+        <v>738157.84550925926</v>
       </c>
       <c r="C17" s="0">
         <v>508.00000056624413</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.84592592588</v>
+        <v>738157.84592592588</v>
       </c>
       <c r="C18" s="0">
         <v>543.99999640882015</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.84633101849</v>
+        <v>738157.84633101849</v>
       </c>
       <c r="C19" s="0">
         <v>578.99999767541885</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.8467361111</v>
+        <v>738157.8467361111</v>
       </c>
       <c r="C20" s="0">
         <v>613.99999894201756</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.84716435184</v>
+        <v>738157.84716435184</v>
       </c>
       <c r="C21" s="0">
         <v>650.99999941885471</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.84821759257</v>
+        <v>738157.84821759257</v>
       </c>
       <c r="C22" s="0">
         <v>741.99999868869781</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.84821759257</v>
+        <v>738157.84821759257</v>
       </c>
       <c r="C23" s="0">
         <v>741.99999868869781</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.84835648153</v>
+        <v>738157.84835648153</v>
       </c>
       <c r="C24" s="0">
         <v>754.00000400841236</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.84879629628</v>
+        <v>738157.84879629628</v>
       </c>
       <c r="C25" s="0">
         <v>791.99999906122684</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.84907407407</v>
+        <v>738157.84907407407</v>
       </c>
       <c r="C26" s="0">
         <v>815.99999964237213</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.84956018522</v>
+        <v>738157.84956018522</v>
       </c>
       <c r="C27" s="0">
         <v>858.00000317394733</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.84984953701</v>
+        <v>738157.84984953701</v>
       </c>
       <c r="C28" s="0">
         <v>882.99999833106995</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.85026620375</v>
+        <v>738157.85026620375</v>
       </c>
       <c r="C29" s="0">
         <v>919.00000423192978</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.85071759264</v>
+        <v>738157.85071759264</v>
       </c>
       <c r="C30" s="0">
         <v>958.00000391900539</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.85100694443</v>
+        <v>738157.85100694443</v>
       </c>
       <c r="C31" s="0">
         <v>982.99999907612801</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.85143518518</v>
+        <v>738157.85143518518</v>
       </c>
       <c r="C32" s="0">
         <v>1019.9999995529652</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.85187500005</v>
+        <v>738157.85187500005</v>
       </c>
       <c r="C33" s="0">
         <v>1058.0000046640635</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.85229166667</v>
+        <v>738157.85229166667</v>
       </c>
       <c r="C34" s="0">
         <v>1094.0000005066395</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.85258101847</v>
+        <v>738157.85258101847</v>
       </c>
       <c r="C35" s="0">
         <v>1118.9999956637621</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.85312500002</v>
+        <v>738157.85312500002</v>
       </c>
       <c r="C36" s="0">
         <v>1166.0000022500753</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.85340277781</v>
+        <v>738157.85340277781</v>
       </c>
       <c r="C37" s="0">
         <v>1190.0000028312206</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.85380787042</v>
+        <v>738157.85380787042</v>
       </c>
       <c r="C38" s="0">
         <v>1225.0000040978193</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.85422453703</v>
+        <v>738157.85422453703</v>
       </c>
       <c r="C39" s="0">
         <v>1260.9999999403954</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.85462962964</v>
+        <v>738157.85462962964</v>
       </c>
       <c r="C40" s="0">
         <v>1296.0000012069941</v>
